--- a/Чек-лист_Мельникова.xlsx
+++ b/Чек-лист_Мельникова.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="75">
   <si>
     <t>№</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>Чек-лист для проверки каталога товаров на Яндекс.Маркете</t>
+  </si>
+  <si>
+    <t>Статус на 12.08.2019</t>
   </si>
 </sst>
 </file>
@@ -617,28 +620,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="99.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="14.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,11 +652,14 @@
       <c r="C2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -662,11 +669,14 @@
       <c r="C3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -676,11 +686,14 @@
       <c r="C4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -690,11 +703,14 @@
       <c r="C5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -704,11 +720,14 @@
       <c r="C6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -718,11 +737,14 @@
       <c r="C7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -732,11 +754,14 @@
       <c r="C8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -746,11 +771,14 @@
       <c r="C9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -760,11 +788,14 @@
       <c r="C10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -774,11 +805,14 @@
       <c r="C11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -788,11 +822,14 @@
       <c r="C12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -802,11 +839,14 @@
       <c r="C13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -816,11 +856,14 @@
       <c r="C14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -830,11 +873,14 @@
       <c r="C15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -844,11 +890,14 @@
       <c r="C16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -858,11 +907,14 @@
       <c r="C17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -872,11 +924,14 @@
       <c r="C18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -886,11 +941,14 @@
       <c r="C19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -900,11 +958,14 @@
       <c r="C20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -914,11 +975,14 @@
       <c r="C21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -928,11 +992,14 @@
       <c r="C22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -942,11 +1009,14 @@
       <c r="C23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -956,11 +1026,14 @@
       <c r="C24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -970,11 +1043,14 @@
       <c r="C25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -984,11 +1060,14 @@
       <c r="C26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -998,11 +1077,14 @@
       <c r="C27" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1012,11 +1094,14 @@
       <c r="C28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1026,11 +1111,14 @@
       <c r="C29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1040,11 +1128,14 @@
       <c r="C30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1054,11 +1145,14 @@
       <c r="C31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1068,11 +1162,14 @@
       <c r="C32" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1082,11 +1179,14 @@
       <c r="C33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1096,11 +1196,14 @@
       <c r="C34" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1110,11 +1213,14 @@
       <c r="C35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1124,11 +1230,14 @@
       <c r="C36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1138,11 +1247,14 @@
       <c r="C37" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1152,11 +1264,14 @@
       <c r="C38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1166,11 +1281,14 @@
       <c r="C39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1180,11 +1298,14 @@
       <c r="C40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1194,11 +1315,14 @@
       <c r="C41" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1208,11 +1332,14 @@
       <c r="C42" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1222,11 +1349,14 @@
       <c r="C43" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1236,11 +1366,14 @@
       <c r="C44" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1250,11 +1383,14 @@
       <c r="C45" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1264,11 +1400,14 @@
       <c r="C46" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1278,11 +1417,14 @@
       <c r="C47" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1292,11 +1434,14 @@
       <c r="C48" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1306,11 +1451,14 @@
       <c r="C49" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1320,11 +1468,14 @@
       <c r="C50" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1334,11 +1485,14 @@
       <c r="C51" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1348,11 +1502,14 @@
       <c r="C52" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1362,11 +1519,14 @@
       <c r="C53" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1376,11 +1536,14 @@
       <c r="C54" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1390,11 +1553,14 @@
       <c r="C55" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1404,11 +1570,14 @@
       <c r="C56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D56" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1418,11 +1587,14 @@
       <c r="C57" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D57" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1432,11 +1604,14 @@
       <c r="C58" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1446,11 +1621,14 @@
       <c r="C59" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1460,11 +1638,14 @@
       <c r="C60" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1474,11 +1655,14 @@
       <c r="C61" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1488,11 +1672,14 @@
       <c r="C62" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1502,11 +1689,14 @@
       <c r="C63" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D63" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1516,11 +1706,14 @@
       <c r="C64" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D64" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1530,11 +1723,14 @@
       <c r="C65" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D65" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1544,11 +1740,14 @@
       <c r="C66" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1558,11 +1757,14 @@
       <c r="C67" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1572,13 +1774,16 @@
       <c r="C68" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E68" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Чек-лист_Мельникова.xlsx
+++ b/Чек-лист_Мельникова.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="76">
   <si>
     <t>№</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>Статус на 12.08.2019</t>
+  </si>
+  <si>
+    <t>Статус на 15.08.2019</t>
   </si>
 </sst>
 </file>
@@ -620,20 +623,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D58" sqref="D57:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="99.7109375" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="14.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>73</v>
       </c>
@@ -641,8 +644,9 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,11 +659,14 @@
       <c r="D2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -672,11 +679,14 @@
       <c r="D3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -689,11 +699,14 @@
       <c r="D4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -706,11 +719,14 @@
       <c r="D5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -723,11 +739,14 @@
       <c r="D6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -740,11 +759,14 @@
       <c r="D7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -757,11 +779,14 @@
       <c r="D8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -774,11 +799,14 @@
       <c r="D9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -791,11 +819,14 @@
       <c r="D10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -808,11 +839,14 @@
       <c r="D11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -825,11 +859,14 @@
       <c r="D12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -842,11 +879,14 @@
       <c r="D13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -859,11 +899,14 @@
       <c r="D14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -876,11 +919,14 @@
       <c r="D15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -893,11 +939,14 @@
       <c r="D16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -910,11 +959,14 @@
       <c r="D17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -927,11 +979,14 @@
       <c r="D18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -944,11 +999,14 @@
       <c r="D19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -961,11 +1019,14 @@
       <c r="D20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -978,11 +1039,14 @@
       <c r="D21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -995,11 +1059,14 @@
       <c r="D22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1012,11 +1079,14 @@
       <c r="D23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1029,11 +1099,14 @@
       <c r="D24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1046,11 +1119,14 @@
       <c r="D25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1063,11 +1139,14 @@
       <c r="D26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1080,11 +1159,14 @@
       <c r="D27" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1097,11 +1179,14 @@
       <c r="D28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1114,11 +1199,14 @@
       <c r="D29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1131,11 +1219,14 @@
       <c r="D30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1148,11 +1239,14 @@
       <c r="D31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1165,11 +1259,14 @@
       <c r="D32" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1182,11 +1279,14 @@
       <c r="D33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1199,11 +1299,14 @@
       <c r="D34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1216,11 +1319,14 @@
       <c r="D35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1233,11 +1339,14 @@
       <c r="D36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1250,11 +1359,14 @@
       <c r="D37" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1267,11 +1379,14 @@
       <c r="D38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1284,11 +1399,14 @@
       <c r="D39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1301,11 +1419,14 @@
       <c r="D40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1318,11 +1439,14 @@
       <c r="D41" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1335,11 +1459,14 @@
       <c r="D42" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1352,11 +1479,14 @@
       <c r="D43" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1369,11 +1499,14 @@
       <c r="D44" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1386,11 +1519,14 @@
       <c r="D45" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1403,11 +1539,14 @@
       <c r="D46" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1420,11 +1559,14 @@
       <c r="D47" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1437,11 +1579,14 @@
       <c r="D48" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1454,11 +1599,14 @@
       <c r="D49" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1471,11 +1619,14 @@
       <c r="D50" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1488,11 +1639,14 @@
       <c r="D51" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E51" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1505,11 +1659,14 @@
       <c r="D52" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1522,11 +1679,14 @@
       <c r="D53" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1539,11 +1699,14 @@
       <c r="D54" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1556,11 +1719,14 @@
       <c r="D55" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1573,11 +1739,14 @@
       <c r="D56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E56" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1590,11 +1759,14 @@
       <c r="D57" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1607,11 +1779,14 @@
       <c r="D58" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1624,11 +1799,14 @@
       <c r="D59" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1641,11 +1819,14 @@
       <c r="D60" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E60" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1658,11 +1839,14 @@
       <c r="D61" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E61" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1675,11 +1859,14 @@
       <c r="D62" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1692,11 +1879,14 @@
       <c r="D63" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E63" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E63" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1709,11 +1899,14 @@
       <c r="D64" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E64" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E64" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1726,11 +1919,14 @@
       <c r="D65" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1743,11 +1939,14 @@
       <c r="D66" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1760,11 +1959,14 @@
       <c r="D67" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E67" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1777,13 +1979,16 @@
       <c r="D68" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
